--- a/classfiers/nano/multinomialNB/nano-multinomialNB-results.xlsx
+++ b/classfiers/nano/multinomialNB/nano-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4943661971830986</v>
+        <v>0.4995930548019533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4811448180192019</v>
+        <v>0.4851519337016575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4943661971830986</v>
+        <v>0.4995930548019533</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7780516431924882</v>
+        <v>0.7745523602821487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7125953675362053</v>
+        <v>0.7249761410206029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7780516431924882</v>
+        <v>0.7745523602821486</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1604938271604938</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6653755868544602</v>
+        <v>0.5993699885452464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5259731452597315</v>
+        <v>0.4628221930974225</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6653755868544601</v>
+        <v>0.5993699885452464</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3849765258215962</v>
+        <v>0.3626943005181347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3849765258215962</v>
+        <v>0.3626943005181347</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05511811023622047</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402520385470719</v>
+        <v>0.5752658849195528</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3403980356681313</v>
+        <v>0.4077149814174036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.402520385470719</v>
+        <v>0.5752658849195527</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1382367968794666</v>
+        <v>0.1500816807713359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5450580677044724</v>
+        <v>0.5622951178134071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4948505561249368</v>
+        <v>0.4956785043928719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5450580677044724</v>
+        <v>0.5622951178134071</v>
       </c>
     </row>
   </sheetData>
